--- a/data/curve1.xlsx
+++ b/data/curve1.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Dropbox\GitHub\GridConvergeLab\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DF248A-F3AB-499E-879E-E506197B1795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="384" yWindow="264" windowWidth="23016" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,8 +44,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +108,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -133,7 +160,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -167,6 +194,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -201,9 +229,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -376,14 +405,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -391,788 +422,788 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>-39.1919</v>
+        <v>-1</v>
       </c>
       <c r="B2">
-        <v>0.0762028</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>7.6202800000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>-38.3838</v>
+        <v>-0.97938094351128691</v>
       </c>
       <c r="B3">
-        <v>0.0931921</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>9.31921E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>-37.5758</v>
+        <v>-0.95876443857021487</v>
       </c>
       <c r="B4">
-        <v>0.09254800000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>9.2548000000000005E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>-36.7677</v>
+        <v>-0.93814538208150156</v>
       </c>
       <c r="B5">
-        <v>0.0920801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>9.2080099999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>-35.9596</v>
+        <v>-0.91752632559278846</v>
       </c>
       <c r="B6">
-        <v>0.0914707</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>9.1470700000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>-35.1515</v>
+        <v>-0.89690726910407514</v>
       </c>
       <c r="B7">
-        <v>0.0907049</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>9.0704900000000005E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>-34.3434</v>
+        <v>-0.87628821261536194</v>
       </c>
       <c r="B8">
-        <v>0.0897516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>8.9751600000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>-33.5354</v>
+        <v>-0.85567170767429002</v>
       </c>
       <c r="B9">
-        <v>0.0886685</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>8.8668499999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>-32.7273</v>
+        <v>-0.8350526511855767</v>
       </c>
       <c r="B10">
-        <v>0.0872729</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>8.72729E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>-31.9192</v>
+        <v>-0.81443359469686349</v>
       </c>
       <c r="B11">
-        <v>0.0858392</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>8.5839200000000004E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>-31.1111</v>
+        <v>-0.79381453820815018</v>
       </c>
       <c r="B12">
-        <v>0.0843448</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>8.4344799999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>-30.303</v>
+        <v>-0.77319548171943697</v>
       </c>
       <c r="B13">
-        <v>0.08279400000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>8.2794000000000006E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>-29.4949</v>
+        <v>-0.75257642523072377</v>
       </c>
       <c r="B14">
-        <v>0.0812105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>8.1210500000000005E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>-28.6869</v>
+        <v>-0.73195992028965173</v>
       </c>
       <c r="B15">
-        <v>0.0794933</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>7.9493300000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>-27.8788</v>
+        <v>-0.71134086380093842</v>
       </c>
       <c r="B16">
-        <v>0.0777761</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>7.7776100000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>-27.0707</v>
+        <v>-0.69072180731222521</v>
       </c>
       <c r="B17">
-        <v>0.0759301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>7.59301E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>-26.2626</v>
+        <v>-0.67010275082351201</v>
       </c>
       <c r="B18">
-        <v>0.0740866</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>7.4086600000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>-25.4545</v>
+        <v>-0.6494836943347988</v>
       </c>
       <c r="B19">
-        <v>0.0723114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>7.2311399999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>-24.6465</v>
+        <v>-0.62886718939372677</v>
       </c>
       <c r="B20">
-        <v>0.0705147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>7.05147E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>-23.8384</v>
+        <v>-0.60824813290501356</v>
       </c>
       <c r="B21">
-        <v>0.06859410000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>6.8594100000000005E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>-23.0303</v>
+        <v>-0.58762907641630036</v>
       </c>
       <c r="B22">
-        <v>0.06662270000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>6.6622700000000007E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>-22.2222</v>
+        <v>-0.56701001992758715</v>
       </c>
       <c r="B23">
-        <v>0.0645516</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>6.4551600000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>-21.4141</v>
+        <v>-0.54639096343887394</v>
       </c>
       <c r="B24">
-        <v>0.0625067</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>6.2506699999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>-20.6061</v>
+        <v>-0.52577445849780191</v>
       </c>
       <c r="B25">
-        <v>0.0606296</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>6.0629599999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>-19.798</v>
+        <v>-0.50515540200908859</v>
       </c>
       <c r="B26">
-        <v>0.0587525</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>5.8752499999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>-18.9899</v>
+        <v>-0.48453634552037539</v>
       </c>
       <c r="B27">
-        <v>0.0570094</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>5.7009400000000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>-18.1818</v>
+        <v>-0.46391728903166218</v>
       </c>
       <c r="B28">
-        <v>0.0553218</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>5.5321799999999997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>-17.3737</v>
+        <v>-0.44329823254294892</v>
       </c>
       <c r="B29">
-        <v>0.0537122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>5.3712200000000002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>-16.5657</v>
+        <v>-0.42268172760187694</v>
       </c>
       <c r="B30">
-        <v>0.0522928</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>5.22928E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>-15.7576</v>
+        <v>-0.40206267111316374</v>
       </c>
       <c r="B31">
-        <v>0.0508735</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>5.0873500000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>-14.9495</v>
+        <v>-0.38144361462445048</v>
       </c>
       <c r="B32">
-        <v>0.0497862</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>4.9786200000000003E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>-14.1414</v>
+        <v>-0.36082455813573727</v>
       </c>
       <c r="B33">
-        <v>0.048733</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>4.8732999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>-13.3333</v>
+        <v>-0.34020550164702401</v>
       </c>
       <c r="B34">
-        <v>0.0479608</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>4.7960799999999998E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>-12.5253</v>
+        <v>-0.31958899670595203</v>
       </c>
       <c r="B35">
-        <v>0.0473492</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>4.7349200000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>-11.7172</v>
+        <v>-0.29896994021723877</v>
       </c>
       <c r="B36">
-        <v>0.0469592</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>4.69592E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>-10.9091</v>
+        <v>-0.27835088372852557</v>
       </c>
       <c r="B37">
-        <v>0.046657</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>4.6656999999999997E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>-10.101</v>
+        <v>-0.25773182723981236</v>
       </c>
       <c r="B38">
-        <v>0.0467321</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>4.6732099999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>-9.29293</v>
+        <v>-0.23711353621539147</v>
       </c>
       <c r="B39">
-        <v>0.0468562</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>4.6856200000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>-8.48485</v>
+        <v>-0.21649499003620648</v>
       </c>
       <c r="B40">
-        <v>0.0473668</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>4.7366800000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>-7.67677</v>
+        <v>-0.19587644385702149</v>
       </c>
       <c r="B41">
-        <v>0.04788</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>4.7879999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>-6.86869</v>
+        <v>-0.1752578976778365</v>
       </c>
       <c r="B42">
-        <v>0.0485768</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>4.8576800000000003E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>-6.06061</v>
+        <v>-0.15463935149865152</v>
       </c>
       <c r="B43">
-        <v>0.0492765</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>4.9276500000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>-5.25253</v>
+        <v>-0.13402080531946653</v>
       </c>
       <c r="B44">
-        <v>0.0499793</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>4.9979299999999997E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>-4.44444</v>
+        <v>-0.11340200398551743</v>
       </c>
       <c r="B45">
-        <v>0.0505408</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>5.0540799999999997E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>-3.63636</v>
+        <v>-9.2783457806332431E-2</v>
       </c>
       <c r="B46">
-        <v>0.0510446</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>5.1044600000000002E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>-2.82828</v>
+        <v>-7.2164911627147443E-2</v>
       </c>
       <c r="B47">
-        <v>0.0513984</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>5.1398399999999997E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>-2.0202</v>
+        <v>-5.1546365447962463E-2</v>
       </c>
       <c r="B48">
-        <v>0.0515396</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>5.1539599999999998E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>-1.21212</v>
+        <v>-3.0927819268777482E-2</v>
       </c>
       <c r="B49">
-        <v>0.0514387</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>5.1438699999999997E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>-0.40404</v>
+        <v>-1.0309273089592494E-2</v>
       </c>
       <c r="B50">
-        <v>0.0513221</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>5.1322100000000002E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0.40404</v>
+        <v>1.0309273089592494E-2</v>
       </c>
       <c r="B51">
-        <v>0.0507284</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>5.07284E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>1.21212</v>
+        <v>3.0927819268777482E-2</v>
       </c>
       <c r="B52">
-        <v>0.0497394</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>4.9739400000000003E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>2.0202</v>
+        <v>5.1546365447962463E-2</v>
       </c>
       <c r="B53">
-        <v>0.0485084</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>4.85084E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>2.82828</v>
+        <v>7.2164911627147443E-2</v>
       </c>
       <c r="B54">
-        <v>0.046405</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>4.6405000000000002E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>3.63636</v>
+        <v>9.2783457806332431E-2</v>
       </c>
       <c r="B55">
-        <v>0.0445402</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>4.4540200000000002E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>4.44444</v>
+        <v>0.11340200398551743</v>
       </c>
       <c r="B56">
-        <v>0.0515085</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>5.1508499999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>5.25253</v>
+        <v>0.13402080531946653</v>
       </c>
       <c r="B57">
-        <v>0.0704704</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>7.0470400000000002E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>6.06061</v>
+        <v>0.15463935149865152</v>
       </c>
       <c r="B58">
-        <v>0.108784</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.10878400000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>6.86869</v>
+        <v>0.1752578976778365</v>
       </c>
       <c r="B59">
-        <v>0.150988</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.15098800000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>7.67677</v>
+        <v>0.19587644385702149</v>
       </c>
       <c r="B60">
-        <v>0.201729</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.20172899999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>8.48485</v>
+        <v>0.21649499003620648</v>
       </c>
       <c r="B61">
-        <v>0.24902</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.24901999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>9.29293</v>
+        <v>0.23711353621539147</v>
       </c>
       <c r="B62">
-        <v>0.283433</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.28343299999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>10.101</v>
+        <v>0.25773182723981236</v>
       </c>
       <c r="B63">
-        <v>0.315923</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.31592300000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>10.9091</v>
+        <v>0.27835088372852557</v>
       </c>
       <c r="B64">
-        <v>0.325055</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.32505499999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>11.7172</v>
+        <v>0.29896994021723877</v>
       </c>
       <c r="B65">
-        <v>0.334187</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.33418700000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>12.5253</v>
+        <v>0.31958899670595203</v>
       </c>
       <c r="B66">
         <v>0.319915</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>13.3333</v>
+        <v>0.34020550164702401</v>
       </c>
       <c r="B67">
-        <v>0.303296</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.30329600000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>14.1414</v>
+        <v>0.36082455813573727</v>
       </c>
       <c r="B68">
-        <v>0.274271</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.27427099999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>14.9495</v>
+        <v>0.38144361462445048</v>
       </c>
       <c r="B69">
-        <v>0.238721</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.23872099999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>15.7576</v>
+        <v>0.40206267111316374</v>
       </c>
       <c r="B70">
-        <v>0.198563</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.19856299999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>16.5657</v>
+        <v>0.42268172760187694</v>
       </c>
       <c r="B71">
         <v>0.157475</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>17.3737</v>
+        <v>0.44329823254294892</v>
       </c>
       <c r="B72">
         <v>0.119376</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>18.1818</v>
+        <v>0.46391728903166218</v>
       </c>
       <c r="B73">
-        <v>0.09500939999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>9.5009399999999994E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>18.9899</v>
+        <v>0.48453634552037539</v>
       </c>
       <c r="B74">
-        <v>0.0725946</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>7.2594599999999995E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>19.798</v>
+        <v>0.50515540200908859</v>
       </c>
       <c r="B75">
-        <v>0.0601132</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>6.0113199999999999E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>20.6061</v>
+        <v>0.52577445849780191</v>
       </c>
       <c r="B76">
-        <v>0.0547304</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>5.4730399999999998E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>21.4141</v>
+        <v>0.54639096343887394</v>
       </c>
       <c r="B77">
-        <v>0.0564503</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>5.6450300000000002E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>22.2222</v>
+        <v>0.56701001992758715</v>
       </c>
       <c r="B78">
-        <v>0.0581702</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>5.8170199999999998E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>23.0303</v>
+        <v>0.58762907641630036</v>
       </c>
       <c r="B79">
-        <v>0.0599471</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>5.9947100000000003E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>23.8384</v>
+        <v>0.60824813290501356</v>
       </c>
       <c r="B80">
-        <v>0.0615364</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>6.1536399999999998E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>24.6465</v>
+        <v>0.62886718939372677</v>
       </c>
       <c r="B81">
-        <v>0.0624292</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>6.2429199999999997E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>25.4545</v>
+        <v>0.6494836943347988</v>
       </c>
       <c r="B82">
-        <v>0.0630237</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>6.3023700000000002E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>26.2626</v>
+        <v>0.67010275082351201</v>
       </c>
       <c r="B83">
-        <v>0.06287379999999999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>6.2873799999999994E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>27.0707</v>
+        <v>0.69072180731222521</v>
       </c>
       <c r="B84">
-        <v>0.06257459999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>6.2574599999999994E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>27.8788</v>
+        <v>0.71134086380093842</v>
       </c>
       <c r="B85">
-        <v>0.0618363</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>6.1836299999999997E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>28.6869</v>
+        <v>0.73195992028965173</v>
       </c>
       <c r="B86">
-        <v>0.0606833</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>6.0683300000000003E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>29.495</v>
+        <v>0.75257897677836505</v>
       </c>
       <c r="B87">
-        <v>0.0594118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>5.9411800000000001E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>30.303</v>
+        <v>0.77319548171943697</v>
       </c>
       <c r="B88">
-        <v>0.0580544</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>5.8054399999999999E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>31.1111</v>
+        <v>0.79381453820815018</v>
       </c>
       <c r="B89">
-        <v>0.0565946</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>5.6594600000000002E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>31.9192</v>
+        <v>0.81443359469686349</v>
       </c>
       <c r="B90">
-        <v>0.0549836</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>5.4983600000000001E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>32.7273</v>
+        <v>0.8350526511855767</v>
       </c>
       <c r="B91">
-        <v>0.0533079</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>5.3307899999999998E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>33.5354</v>
+        <v>0.85567170767429002</v>
       </c>
       <c r="B92">
-        <v>0.0516564</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>5.1656399999999998E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>34.3434</v>
+        <v>0.87628821261536194</v>
       </c>
       <c r="B93">
-        <v>0.0499969</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>4.9996899999999997E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>35.1515</v>
+        <v>0.89690726910407514</v>
       </c>
       <c r="B94">
-        <v>0.048626</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>4.8626000000000003E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>35.9596</v>
+        <v>0.91752632559278846</v>
       </c>
       <c r="B95">
-        <v>0.0473412</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>4.73412E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>36.7677</v>
+        <v>0.93814538208150156</v>
       </c>
       <c r="B96">
-        <v>0.0464277</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>4.6427700000000002E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>37.5758</v>
+        <v>0.95876443857021487</v>
       </c>
       <c r="B97">
-        <v>0.0456509</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>4.5650900000000001E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>38.3838</v>
+        <v>0.97938094351128691</v>
       </c>
       <c r="B98">
-        <v>0.0429413</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>4.2941300000000002E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>39.1919</v>
+        <v>1</v>
       </c>
       <c r="B99">
-        <v>0.0384777</v>
+        <v>3.8477699999999997E-2</v>
       </c>
     </row>
   </sheetData>
